--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3046EB0-4661-4D1C-A8AB-32F0E3AA68D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1912DF-3335-4E37-8E06-2C374DEBE0A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
   <si>
     <t>User Story #1</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Display appropriate info on modal</t>
+  </si>
+  <si>
+    <t>Not required</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1264,9 +1270,9 @@
   </sheetPr>
   <dimension ref="B1:AB124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1550,9 @@
       <c r="F8" s="8">
         <v>4</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -1573,7 +1581,9 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1604,9 +1614,13 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2439,7 +2453,7 @@
       </c>
       <c r="G38" s="5">
         <f>SUM(G4:G37)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="5">
         <f>SUM(H3:H37)</f>
